--- a/salidas/reco/recomendaciones.xlsx
+++ b/salidas/reco/recomendaciones.xlsx
@@ -455,15 +455,15 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4447</v>
+        <v>7438</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Legally Blonde</t>
+          <t>Kill Bill: Vol. 2</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3">
@@ -471,15 +471,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>62</v>
+        <v>6874</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mr. Holland's Opus</t>
+          <t>Kill Bill: Vol. 1</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4">
@@ -487,15 +487,15 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4226</v>
+        <v>4262</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Memento</t>
+          <t>Scarface</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5">
@@ -503,15 +503,15 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1036</v>
+        <v>2115</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Die Hard</t>
+          <t>Indiana Jones and the Temple of Doom</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6">
@@ -519,15 +519,15 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3033</v>
+        <v>48774</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Spaceballs</t>
+          <t>Children of Men</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7">
@@ -535,15 +535,15 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1240</v>
+        <v>1573</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Terminator, The</t>
+          <t>Face/Off</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8">
@@ -551,15 +551,15 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3408</v>
+        <v>1645</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Erin Brockovich</t>
+          <t>The Devil's Advocate</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9">
@@ -567,15 +567,15 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Broken Arrow</t>
+          <t>GoldenEye</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10">
@@ -583,15 +583,15 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2355</v>
+        <v>509</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bug's Life, A</t>
+          <t>Piano, The</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11">
@@ -599,15 +599,15 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2268</v>
+        <v>2100</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Few Good Men, A</t>
+          <t>Splash</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12">
@@ -615,15 +615,15 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>316</v>
+        <v>1580</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Stargate</t>
+          <t>Men in Black (a.k.a. MIB)</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13">
@@ -631,15 +631,15 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>4447</v>
+        <v>3948</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Legally Blonde</t>
+          <t>Meet the Parents</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14">
@@ -647,15 +647,15 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>62</v>
+        <v>6016</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mr. Holland's Opus</t>
+          <t>City of God (Cidade de Deus)</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15">
@@ -663,15 +663,15 @@
         <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>4226</v>
+        <v>2571</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Memento</t>
+          <t>Matrix, The</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16">
@@ -679,15 +679,15 @@
         <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>1036</v>
+        <v>35836</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Die Hard</t>
+          <t>40-Year-Old Virgin, The</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17">
@@ -695,15 +695,15 @@
         <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>3033</v>
+        <v>1206</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Spaceballs</t>
+          <t>Clockwork Orange, A</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18">
@@ -711,15 +711,15 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>1240</v>
+        <v>5956</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Terminator, The</t>
+          <t>Gangs of New York</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19">
@@ -727,15 +727,15 @@
         <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>3408</v>
+        <v>1089</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Erin Brockovich</t>
+          <t>Reservoir Dogs</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20">
@@ -743,15 +743,15 @@
         <v>7</v>
       </c>
       <c r="B20" t="n">
-        <v>95</v>
+        <v>1214</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Broken Arrow</t>
+          <t>Alien</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21">
@@ -759,15 +759,15 @@
         <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>2355</v>
+        <v>4878</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Bug's Life, A</t>
+          <t>Donnie Darko</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22">
@@ -775,15 +775,15 @@
         <v>9</v>
       </c>
       <c r="B22" t="n">
-        <v>2268</v>
+        <v>3949</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Few Good Men, A</t>
+          <t>Requiem for a Dream</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23">
@@ -791,15 +791,15 @@
         <v>10</v>
       </c>
       <c r="B23" t="n">
-        <v>316</v>
+        <v>3489</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Stargate</t>
+          <t>Hook</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24">
@@ -807,15 +807,15 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>4447</v>
+        <v>1090</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Legally Blonde</t>
+          <t>Platoon</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>608</v>
       </c>
     </row>
     <row r="25">
@@ -823,15 +823,15 @@
         <v>1</v>
       </c>
       <c r="B25" t="n">
-        <v>62</v>
+        <v>1028</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mr. Holland's Opus</t>
+          <t>Mary Poppins</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>608</v>
       </c>
     </row>
     <row r="26">
@@ -839,15 +839,15 @@
         <v>2</v>
       </c>
       <c r="B26" t="n">
-        <v>4226</v>
+        <v>586</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Memento</t>
+          <t>Home Alone</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27">
@@ -855,15 +855,15 @@
         <v>3</v>
       </c>
       <c r="B27" t="n">
-        <v>1036</v>
+        <v>551</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Die Hard</t>
+          <t>Nightmare Before Christmas, The</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>608</v>
       </c>
     </row>
     <row r="28">
@@ -871,15 +871,15 @@
         <v>4</v>
       </c>
       <c r="B28" t="n">
-        <v>3033</v>
+        <v>593</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Spaceballs</t>
+          <t>Silence of the Lambs, The</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>608</v>
       </c>
     </row>
     <row r="29">
@@ -887,15 +887,15 @@
         <v>5</v>
       </c>
       <c r="B29" t="n">
-        <v>1240</v>
+        <v>1079</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Terminator, The</t>
+          <t>Fish Called Wanda, A</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30">
@@ -903,15 +903,15 @@
         <v>6</v>
       </c>
       <c r="B30" t="n">
-        <v>3408</v>
+        <v>589</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Erin Brockovich</t>
+          <t>Terminator 2: Judgment Day</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31">
@@ -919,15 +919,15 @@
         <v>7</v>
       </c>
       <c r="B31" t="n">
-        <v>95</v>
+        <v>1073</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Broken Arrow</t>
+          <t>Willy Wonka &amp; the Chocolate Factory</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>608</v>
       </c>
     </row>
     <row r="32">
@@ -935,15 +935,15 @@
         <v>8</v>
       </c>
       <c r="B32" t="n">
-        <v>2355</v>
+        <v>70</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Bug's Life, A</t>
+          <t>From Dusk Till Dawn</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>608</v>
       </c>
     </row>
     <row r="33">
@@ -951,15 +951,15 @@
         <v>9</v>
       </c>
       <c r="B33" t="n">
-        <v>2268</v>
+        <v>442</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Few Good Men, A</t>
+          <t>Demolition Man</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>608</v>
       </c>
     </row>
     <row r="34">
@@ -967,15 +967,15 @@
         <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>316</v>
+        <v>588</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Stargate</t>
+          <t>Aladdin</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
